--- a/tunnel-business/src/main/resources/exporttemplate/设备数据.xlsx
+++ b/tunnel-business/src/main/resources/exporttemplate/设备数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44418\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB4D5E-2762-4663-8D76-62BAC5A95405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939081CD-EA8B-43BB-B24A-5E01A25EBD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备数据" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="241">
   <si>
     <t>设备ID</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>马鞍山隧道</t>
-  </si>
-  <si>
-    <t>WLJD-JiNan-YanJiuYuan-FHS</t>
-  </si>
-  <si>
-    <t>凤凰山隧道</t>
   </si>
   <si>
     <t>亮度检测器</t>
@@ -746,10 +740,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JQ-WeiFang-JiuLongYu-HSD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>所属隧道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -811,6 +801,51 @@
   </si>
   <si>
     <t>轮廓标控制器</t>
+  </si>
+  <si>
+    <t>JQ-JiNan-WenZuBei-MJY</t>
+  </si>
+  <si>
+    <t>JQ-WeiFang-JiuLongYu-HSD</t>
+  </si>
+  <si>
+    <t>JQ-WeiFang-MiaoZi-BJY</t>
+  </si>
+  <si>
+    <t>JQ-WeiFang-MiaoZi-WCL</t>
+  </si>
+  <si>
+    <t>JQ-WeiFang-YangTianShan-SZS</t>
+  </si>
+  <si>
+    <t>JQ-WeiFang-YangTianShan-YTS</t>
+  </si>
+  <si>
+    <t>JQ-ZiBo-TaiHe-PDS</t>
+  </si>
+  <si>
+    <t>JQ-ZiBo-TaiHe-QFL</t>
+  </si>
+  <si>
+    <t>胡山隧道</t>
+  </si>
+  <si>
+    <t>北甲峪隧道</t>
+  </si>
+  <si>
+    <t>万昌溜隧道</t>
+  </si>
+  <si>
+    <t>双子山隧道</t>
+  </si>
+  <si>
+    <t>仰天山隧道</t>
+  </si>
+  <si>
+    <t>盘顶山隧道</t>
+  </si>
+  <si>
+    <t>青风岭隧道</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="B5 A2"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1315,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -1366,16 +1401,16 @@
         <v>14</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1528,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1659,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1771,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1779,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,7 +1811,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1843,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1851,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1859,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1867,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1875,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +1899,7 @@
         <v>1046</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1875,9 +1910,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F859E6FF-1EE3-4218-9072-E39F4AEFBA28}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1887,34 +1924,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2155,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2203,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,498 +2250,498 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2766,7 @@
         <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2774,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2782,7 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2790,7 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2798,7 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2806,7 @@
         <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2814,7 @@
         <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
